--- a/Results/Notebook 2 Example 1/Scores/problem_1_instance3_scores.xlsx
+++ b/Results/Notebook 2 Example 1/Scores/problem_1_instance3_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01178509571914582</v>
+        <v>0.01513913556067221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.177623793515154</v>
+        <v>0.1935147000787938</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06827893552408637</v>
+        <v>0.07780334607687329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.17568280078953</v>
+        <v>0.1377434218558929</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7598409322977119</v>
+        <v>0.5903019223163911</v>
       </c>
       <c r="C4" t="n">
-        <v>0.150753820546341</v>
+        <v>0.1704609998053457</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9713847951118526</v>
+        <v>0.9642806534098475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3621225295395021</v>
+        <v>0.4099100892513007</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9686866723649306</v>
+        <v>0.8728958730672948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.563337335380276</v>
+        <v>0.6585849000275269</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8429002395745679</v>
+        <v>0.6477492993357922</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07945919933978107</v>
+        <v>0.1121778859341113</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002093374729156494</v>
+        <v>0.004802521467208862</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2358830571174622</v>
+        <v>0.1970614433288574</v>
       </c>
     </row>
   </sheetData>
